--- a/DongAERP/Content/Report/ReportDetailtByPartnerLTForOne.xlsx
+++ b/DongAERP/Content/Report/ReportDetailtByPartnerLTForOne.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DongAERP\DongAERP\Content\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BF7D1A-DAC4-45F6-B5CF-C73B8C1703EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1749E1B9-602E-4332-9E99-284F92DD77DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FDADBC8A-6B6C-45FD-98E5-87326587A42E}"/>
   </bookViews>
@@ -68,10 +68,10 @@
     <t>Tổng quy USD</t>
   </si>
   <si>
-    <t>BÁO CÁO TỔNG HỢP - THEO  ĐỐI TÁC</t>
-  </si>
-  <si>
     <t>Thời gian</t>
+  </si>
+  <si>
+    <t>BÁO CÁO CHI TIẾT - THEO  ĐỐI TÁC</t>
   </si>
 </sst>
 </file>
@@ -223,14 +223,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -549,7 +549,7 @@
   <dimension ref="A1:T36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -575,18 +575,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="A1" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
@@ -597,16 +597,16 @@
       <c r="R1" s="8"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
@@ -685,8 +685,8 @@
       <c r="M25" s="4"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B35" s="19" t="s">
-        <v>12</v>
+      <c r="B35" s="17" t="s">
+        <v>11</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>8</v>
@@ -707,7 +707,7 @@
       <c r="O35" s="16"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B36" s="19"/>
+      <c r="B36" s="17"/>
       <c r="C36" s="10" t="s">
         <v>2</v>
       </c>
